--- a/Banco Central/13/1/2/3/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
+++ b/Banco Central/13/1/2/3/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5483,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>6953</v>
+        <v>6971</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5492,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>6953</v>
+        <v>6971</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -5504,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>-6953</v>
+        <v>-6971</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5522,10 +5525,84 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>6953</v>
+        <v>6971</v>
       </c>
       <c r="X66">
-        <v>-6953</v>
+        <v>-6971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>6402</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>6402</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>-6402</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>6402</v>
+      </c>
+      <c r="X67">
+        <v>-6402</v>
       </c>
     </row>
   </sheetData>
